--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanveershaikh/cs441_homeworks/unaiza_faiz_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A86AE25-4E0E-8143-94E5-74403A09B2BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AF299A-58DC-504E-863E-9992007B3D3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{DFB79F72-D151-9041-9166-57B3477F3E0D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="4" xr2:uid="{DFB79F72-D151-9041-9166-57B3477F3E0D}"/>
   </bookViews>
   <sheets>
     <sheet name="RoundRobin" sheetId="3" r:id="rId1"/>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC5C020-436F-5D48-9EC3-A2DB482F7683}">
   <dimension ref="A1:M546"/>
   <sheetViews>
-    <sheetView topLeftCell="A510" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="A511" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -21599,7 +21599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD68E9B3-630F-254D-9E05-8BD4265C03E0}">
   <dimension ref="A1:M541"/>
   <sheetViews>
-    <sheetView topLeftCell="A501" workbookViewId="0">
+    <sheetView topLeftCell="A504" workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
@@ -42575,7 +42575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00612F5-E1FE-AB40-9210-FFB31FB2A1D1}">
   <dimension ref="A1:M541"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A492" workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
@@ -63553,8 +63553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBADD9AB-DFD6-AF45-8C86-2918FC258068}">
   <dimension ref="A1:O501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -69377,8 +69377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFE9A91-CF60-0E46-BE67-6C15660978F7}">
   <dimension ref="A1:O501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -69386,6 +69386,7 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
